--- a/static/example/questions.xlsx
+++ b/static/example/questions.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Темы" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="themes" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="инструкция" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
   <si>
     <t xml:space="preserve">Тема</t>
   </si>
@@ -234,7 +234,185 @@
     <t xml:space="preserve">Теория ГТУ (ГТД)</t>
   </si>
   <si>
-    <t xml:space="preserve">   В таблицу на первой вкладке (questions) вносите вопросы для тестов.                                                                                                               В первом столбце указывайте шифр темы (из вкладки Темы). Если Вам необходимо внести новую тему просто придумайте для неё шифр и смело используйте. Шифр должен быть без пробелов и латинскими буквами.                                                               В столбце «Количество ответов» необходимо точно указать сколько вариантов ответов есть в вашем тестовом вопросе.               В столбце «Номер правильного ответа» укажите порядковый номер ответа. Например, если правильный ответ находится в столбце «Ответ №2», то номер правильного ответа это число 2.       Вопросы, которые представлены как пример необходимо удалить.</t>
+    <t xml:space="preserve">pozh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пожарная безопасность</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">В таблицу на первой вкладке (</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">questions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">) вносите вопросы для тестов.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">В первом столбце указывайте шифр темы (из вкладки </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">themes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Если в списке нет нужной Вам темы просто придумайте для неё шифр и смело используйте. Шифр новой темы с названием внесите в таблицу на вкладке </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">themes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(не добавляйте пустые строки!)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Шифр должен быть без пробелов и латинскими буквами (в качестве пробела используйте нижнее подчёркивание).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">В столбце «Количество ответов» необходимо </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <u val="single"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">точно</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> указать сколько вариантов ответов есть в вашем тестовом вопросе.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">В столбце «Номер правильного ответа» укажите порядковый номер ответа. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Например, если правильный ответ находится в столбце «Ответ №2», то номер правильного ответа это число 2.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Вопросы, которые представлены как пример необходимо удалить. </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Не добавляйте пустые строки!</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -245,7 +423,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -284,10 +462,42 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,7 +513,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF77BC65"/>
-        <bgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF5EB91E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFA6"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -378,7 +594,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -439,8 +655,20 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -489,18 +717,18 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFFA6"/>
       <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF5EB91E"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF860D"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF3465A4"/>
       <rgbColor rgb="FF77BC65"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -518,20 +746,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF3465A4"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="3" width="15.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="2" width="50"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="12.71"/>
@@ -585,7 +813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="49.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -608,7 +836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="45.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -1446,18 +1674,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF5EB91E"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="38.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="18.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="38.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1653,49 +1882,23 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-    </row>
-    <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-    </row>
-    <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-    </row>
-    <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-    </row>
-    <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-    </row>
-    <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-    </row>
-    <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-    </row>
-    <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-    </row>
-    <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-    </row>
-    <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-    </row>
-    <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-    </row>
+      <c r="A25" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1713,17 +1916,17 @@
     <tabColor rgb="FFFF860D"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="48.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -1732,9 +1935,13 @@
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -1742,9 +1949,13 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" customFormat="false" ht="72.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -1752,9 +1963,13 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" customFormat="false" ht="49.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -1762,9 +1977,13 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="62.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -1772,9 +1991,13 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" customFormat="false" ht="44.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -1782,19 +2005,27 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" customFormat="false" ht="53.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" customFormat="false" ht="43.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -1802,150 +2033,162 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="28" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H22"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/static/example/questions.xlsx
+++ b/static/example/questions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" state="visible" r:id="rId2"/>
@@ -749,10 +749,12 @@
     <tabColor rgb="FF3465A4"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N92"/>
+  <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -859,807 +861,220 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-    </row>
-    <row r="50" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-    </row>
-    <row r="56" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-    </row>
-    <row r="57" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-    </row>
-    <row r="58" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-    </row>
-    <row r="60" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-    </row>
-    <row r="63" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-    </row>
-    <row r="64" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-    </row>
-    <row r="65" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-    </row>
-    <row r="66" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-    </row>
-    <row r="67" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-    </row>
-    <row r="68" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-    </row>
-    <row r="69" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-    </row>
-    <row r="70" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-    </row>
-    <row r="71" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-    </row>
-    <row r="72" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-    </row>
-    <row r="73" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-    </row>
-    <row r="74" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-    </row>
-    <row r="75" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-    </row>
-    <row r="76" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-    </row>
-    <row r="77" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-    </row>
-    <row r="78" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-    </row>
-    <row r="79" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-    </row>
-    <row r="80" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-    </row>
-    <row r="81" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-    </row>
-    <row r="82" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-    </row>
-    <row r="83" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-    </row>
-    <row r="84" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-    </row>
-    <row r="85" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-    </row>
-    <row r="86" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-    </row>
-    <row r="87" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-    </row>
-    <row r="88" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-    </row>
-    <row r="89" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-    </row>
-    <row r="90" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-    </row>
-    <row r="91" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-    </row>
-    <row r="92" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-    </row>
+    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1683,7 +1098,7 @@
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="18.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="38.02"/>
@@ -1918,11 +1333,11 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="48.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
